--- a/Timetables/Eberwein_Zeiten.xlsx
+++ b/Timetables/Eberwein_Zeiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeber\Desktop\schule\Diplo\Diplomarbeit_KI_Model_Auto\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564377AF-68D0-4A3F-8087-507482D42B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10525908-B154-4744-9744-5EB91E587A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{1A4BDFD0-E60D-4738-B01C-B5716BE802BD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{1A4BDFD0-E60D-4738-B01C-B5716BE802BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Teile Begutachtet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo </t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3857D0C-2A16-4E76-B797-E7F94A4E4383}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +499,7 @@
         <v>0.6875</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E6" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E7" si="0">D4-C4</f>
         <v>6.25E-2</v>
       </c>
       <c r="F4" t="s">
@@ -537,6 +540,24 @@
       </c>
       <c r="F6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>45569</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Timetables/Eberwein_Zeiten.xlsx
+++ b/Timetables/Eberwein_Zeiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeber\Desktop\schule\Diplo\Diplomarbeit_KI_Model_Auto\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10525908-B154-4744-9744-5EB91E587A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C31D4-6981-4055-9854-2DD2F2501215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{1A4BDFD0-E60D-4738-B01C-B5716BE802BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A4BDFD0-E60D-4738-B01C-B5716BE802BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Teile Begutachtet</t>
   </si>
   <si>
-    <t xml:space="preserve">Creo </t>
+    <t xml:space="preserve">Creo Raspberry einbau </t>
+  </si>
+  <si>
+    <t>Creo Abmessungen</t>
   </si>
 </sst>
 </file>
@@ -445,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3857D0C-2A16-4E76-B797-E7F94A4E4383}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>45545</v>
       </c>
@@ -487,8 +490,12 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="L3" s="3">
+        <f>SUM(E3:E41)</f>
+        <v>0.5590277777777779</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>45546</v>
       </c>
@@ -499,14 +506,14 @@
         <v>0.6875</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E7" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E10" si="0">D4-C4</f>
         <v>6.25E-2</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>45548</v>
       </c>
@@ -524,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>45549</v>
       </c>
@@ -542,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>45569</v>
       </c>
@@ -558,6 +565,54 @@
       </c>
       <c r="F7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>45571</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>45572</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>45573</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16319444444444448</v>
       </c>
     </row>
   </sheetData>
